--- a/artfynd/A 50639-2020.xlsx
+++ b/artfynd/A 50639-2020.xlsx
@@ -3272,10 +3272,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111250513</v>
+        <v>111250503</v>
       </c>
       <c r="B25" t="n">
-        <v>94134</v>
+        <v>89590</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3284,39 +3284,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Ådals-Lidens kyrka (Ådals-Lidens kyrka), Ång</t>
+          <t>Pelle Molins stuga (Pelle Molins stuga), Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>594106.3300281425</v>
+        <v>594115.9856195007</v>
       </c>
       <c r="R25" t="n">
-        <v>7036943.462816458</v>
+        <v>7036950.462389814</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3385,10 +3385,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111250503</v>
+        <v>111250513</v>
       </c>
       <c r="B26" t="n">
-        <v>89590</v>
+        <v>94134</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3397,39 +3397,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Pelle Molins stuga (Pelle Molins stuga), Ång</t>
+          <t>Ådals-Lidens kyrka (Ådals-Lidens kyrka), Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>594115.9856195007</v>
+        <v>594106.3300281425</v>
       </c>
       <c r="R26" t="n">
-        <v>7036950.462389814</v>
+        <v>7036943.462816458</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD26" t="b">
